--- a/doc/malloc.xlsx
+++ b/doc/malloc.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biwa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.37\share\workspace\bwos\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16896" windowHeight="10896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20604" windowHeight="10716" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>メモリブロック
 （空き)</t>
@@ -124,6 +125,135 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>mem_block[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身のサイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の空きブロックへのリンク</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シグネチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用中ブロック</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小５ワード</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実データ領域
+(ワードアライン)</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワードアライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態=空き</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態=使用中</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シヨウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空きメモリ</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期状態</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空きブロックへのリンク(=0)</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -214,18 +344,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,13 +572,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2163,6 +2550,466 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807720" y="3604260"/>
+          <a:ext cx="655320" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807720" y="3627120"/>
+          <a:ext cx="640080" cy="2827020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="502920" y="3200400"/>
+          <a:ext cx="1219200" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１番目のブロック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="4625340"/>
+          <a:ext cx="1219200" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２番目のブロック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右中かっこ 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406140" y="4030980"/>
+          <a:ext cx="236220" cy="2186940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3672840" y="4960620"/>
+          <a:ext cx="1104900" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自身のサイズ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="4290060"/>
+          <a:ext cx="1276350" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2804160" y="5242560"/>
+          <a:ext cx="1421130" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2428,7 +3275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -2454,119 +3301,119 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -2659,4 +3506,382 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="6" width="6.88671875" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="21"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="21"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="21"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="21"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="21"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="21"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="21"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="3:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C28:F35"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/malloc.xlsx
+++ b/doc/malloc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20604" windowHeight="10716" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10764" windowHeight="9804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,6 +554,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,48 +575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,6 +588,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3007,6 +3007,180 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右中かっこ 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="1851660"/>
+          <a:ext cx="167640" cy="998220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573780" y="2209800"/>
+          <a:ext cx="1104900" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自身のサイズ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="2087880"/>
+          <a:ext cx="1177290" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3298,122 +3472,122 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="2" t="s">
+      <c r="B11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -3421,7 +3595,7 @@
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
@@ -3429,19 +3603,19 @@
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
+      <c r="B43" s="2"/>
       <c r="C43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
@@ -3449,22 +3623,22 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
+      <c r="B48" s="2"/>
       <c r="C48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
@@ -3472,16 +3646,16 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
+      <c r="B53" s="2"/>
       <c r="C53" t="s">
         <v>7</v>
       </c>
@@ -3513,7 +3687,7 @@
   <dimension ref="A2:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3528,17 +3702,17 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
       <c r="H2" t="s">
         <v>25</v>
       </c>
@@ -3547,75 +3721,75 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="H8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3623,17 +3797,17 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4"/>
       <c r="H12" t="s">
         <v>26</v>
       </c>
@@ -3642,216 +3816,236 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="4"/>
       <c r="H17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="22"/>
       <c r="I24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="25"/>
       <c r="I25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="22"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="22"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="21"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="22"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="21"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="22"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="21"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="22"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="21"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="22"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="21"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="22"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="21"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="22"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="21"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="22"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="22"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="3:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="25"/>
+      <c r="F37" s="12"/>
       <c r="I37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="7"/>
       <c r="I38" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
@@ -3859,26 +4053,6 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="C28:F35"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/malloc.xlsx
+++ b/doc/malloc.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.37\share\workspace\bwos\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10764" windowHeight="9804" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10769" windowHeight="9805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>メモリブロック
 （空き)</t>
@@ -248,8 +243,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>空きブロックへのリンク(=0)</t>
+    <t>空きブロックへのリンク(prev)</t>
     <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空きブロックへのリンク(next)</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の空きブロックへのリンク</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -284,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -544,13 +556,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,19 +638,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -620,14 +677,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2075,6 +2159,7 @@
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2186,6 +2271,7 @@
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2303,6 +2389,7 @@
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2390,7 +2477,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空きブロックはリンクで接続する！！</a:t>
+            <a:t>空きブロックは双方向リンクで接続する！！</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2556,13 +2643,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2606,13 +2693,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2656,13 +2743,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2720,13 +2807,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2784,13 +2871,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2841,13 +2928,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2905,13 +2992,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2958,13 +3045,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3011,13 +3098,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3068,13 +3155,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3132,13 +3219,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>598170</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3439,7 +3526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3449,11 +3536,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -3502,7 +3589,7 @@
       <c r="H5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="D6" s="3" t="s">
         <v>1</v>
@@ -3543,7 +3630,7 @@
       <c r="H10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="D11" s="4"/>
       <c r="F11" s="3" t="s">
@@ -3684,13 +3771,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I38"/>
+  <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" customWidth="1"/>
@@ -3739,7 +3826,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3747,8 +3834,8 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3756,303 +3843,315 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="H12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="4"/>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="13.15" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:9" ht="13.15" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="I24" t="s">
+      <c r="F25" s="20"/>
+      <c r="I25" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="I25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="8" t="s">
-        <v>27</v>
+      <c r="C28" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="8"/>
+      <c r="C29" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="9"/>
+      <c r="C30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="9"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="9"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="9"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="8"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="9"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="9"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="3:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="3:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="I37" t="s">
+      <c r="F38" s="25"/>
+      <c r="I38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="I38" t="s">
+      <c r="F39" s="7"/>
+      <c r="I39" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
+  <mergeCells count="28">
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C28:F35"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
